--- a/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\TEMOA\TemoaHurricane_V2\CreateDB_NC\InputData\FragilityCurvesData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\OceanTech\TemoaHurricane_V2\CreateDB_NC\InputData\FragilityCurvesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C53ED2C-3C8B-4D3C-9065-FE6F73894983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05D4396-643E-47CF-A8F2-06A4EF8EDE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
   <si>
     <t>Technologies</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>Onshore Wind Turbine (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>Victor_OC</t>
+  </si>
+  <si>
+    <t>OCEAN_CURRENT_NEW</t>
   </si>
 </sst>
 </file>
@@ -719,20 +725,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403AAC54-22D7-42C6-84BF-5B756562A678}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.3984375" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -754,7 +760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -765,7 +771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -776,7 +782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -787,7 +793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -798,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -809,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -820,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -831,7 +837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -842,7 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -853,7 +859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -864,7 +870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -875,7 +881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -886,7 +892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -897,7 +903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -908,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -919,7 +925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -930,7 +936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -941,7 +947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -952,7 +958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -963,7 +969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -974,7 +980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -985,7 +991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1007,7 +1013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -1183,7 +1189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -1205,7 +1211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -1315,7 +1321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -1346,6 +1352,14 @@
       </c>
       <c r="C56" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\OceanTech\TemoaHurricane_V2\CreateDB_NC\InputData\FragilityCurvesData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaduraes\Desktop\victor\TemoaHurricane_V2\CreateDB_NC\InputData\FragilityCurvesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05D4396-643E-47CF-A8F2-06A4EF8EDE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -390,16 +389,16 @@
     <t>Onshore Wind Turbine (EIA 860 Nomenclature)</t>
   </si>
   <si>
-    <t>Victor_OC</t>
-  </si>
-  <si>
     <t>OCEAN_CURRENT_NEW</t>
+  </si>
+  <si>
+    <t>Victor_OC_DS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,11 +723,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403AAC54-22D7-42C6-84BF-5B756562A678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,14 +1355,14 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
         <v>122</v>
       </c>
-      <c r="C57" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C56">
+  <sortState ref="A2:C56">
     <sortCondition ref="A2:A56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\TEMOA\TemoaHurricane_V2\CreateDB_NC\InputData\FragilityCurvesData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\FragilityCurvesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C53ED2C-3C8B-4D3C-9065-FE6F73894983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7921C128-BF2D-4DA0-A6D2-1D7FC034A55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -721,18 +732,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403AAC54-22D7-42C6-84BF-5B756562A678}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.3984375" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -754,604 +765,601 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B23" t="s">
         <v>68</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B26" t="s">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B27" t="s">
         <v>72</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B28" t="s">
         <v>73</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B30" t="s">
         <v>76</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B31" t="s">
         <v>77</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B32" t="s">
         <v>78</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B33" t="s">
         <v>82</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B35" t="s">
         <v>84</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B36" t="s">
         <v>85</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B37" t="s">
         <v>86</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B38" t="s">
         <v>87</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B39" t="s">
         <v>93</v>
       </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B40" t="s">
         <v>94</v>
       </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B41" t="s">
         <v>95</v>
       </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B42" t="s">
         <v>96</v>
       </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B43" t="s">
         <v>98</v>
       </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B44" t="s">
         <v>99</v>
       </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B45" t="s">
         <v>100</v>
       </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B46" t="s">
         <v>103</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B47" t="s">
         <v>104</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>27</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B48" t="s">
         <v>106</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>55</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B49" t="s">
         <v>107</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>59</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B50" t="s">
         <v>108</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>57</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B51" t="s">
         <v>110</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>58</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B52" t="s">
         <v>111</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>35</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>118</v>
-      </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>119</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C56">
-    <sortCondition ref="A2:A56"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\FragilityCurvesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7921C128-BF2D-4DA0-A6D2-1D7FC034A55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71026FAC-F804-4108-8C59-029844C4A1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
   <si>
     <t>Technologies</t>
   </si>
@@ -56,30 +56,6 @@
     <t>CO2 Storage</t>
   </si>
   <si>
-    <t>wind_nonyaw</t>
-  </si>
-  <si>
-    <t>trans_UK_base</t>
-  </si>
-  <si>
-    <t>solar_utility</t>
-  </si>
-  <si>
-    <t>secbh_severe</t>
-  </si>
-  <si>
-    <t>secbm_severe</t>
-  </si>
-  <si>
-    <t>cecbl_severe</t>
-  </si>
-  <si>
-    <t>secbl_severe</t>
-  </si>
-  <si>
-    <t>inf_stiff</t>
-  </si>
-  <si>
     <t>AB_ST_EXISTING</t>
   </si>
   <si>
@@ -260,9 +236,6 @@
     <t>Generation From Biomass With 90% Carbon Capture (Technology from NREL ReEDS model  Using BECC-mod)</t>
   </si>
   <si>
-    <t>Generation From Biomass (NREL ATB 2023 Technology)</t>
-  </si>
-  <si>
     <t>Steam Turbine Using Black Liquor (EIA 860 Nomenclature)</t>
   </si>
   <si>
@@ -399,6 +372,27 @@
   </si>
   <si>
     <t>Onshore Wind Turbine (EIA 860 Nomenclature)</t>
+  </si>
+  <si>
+    <t>SECBM</t>
+  </si>
+  <si>
+    <t>SECBL</t>
+  </si>
+  <si>
+    <t>Generation From Biomass No Carbon Capture</t>
+  </si>
+  <si>
+    <t>CECBM</t>
+  </si>
+  <si>
+    <t>solar_Kabre</t>
+  </si>
+  <si>
+    <t>wind_AVG_CAMPO_MIGUEL</t>
+  </si>
+  <si>
+    <t>NotAffected</t>
   </si>
 </sst>
 </file>
@@ -422,12 +416,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -442,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,6 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,7 +734,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A54" sqref="A54:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,610 +757,611 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" t="s">
         <v>118</v>
       </c>
+    </row>
+    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="C55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\FragilityCurvesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71026FAC-F804-4108-8C59-029844C4A1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EAC519-85BD-416F-9111-A5AD803DA490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
   <si>
     <t>Technologies</t>
   </si>
@@ -95,9 +95,6 @@
     <t>COAL_NEW</t>
   </si>
   <si>
-    <t>PV-COMMERCIAL_NEW</t>
-  </si>
-  <si>
     <t>DFO_CC_EXISTING</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>WIND-OFFSHORE-C6_NEW</t>
   </si>
   <si>
-    <t>PV-RESIDENTIAL_NEW</t>
-  </si>
-  <si>
     <t>SUN_PV_EXISTING</t>
   </si>
   <si>
@@ -393,13 +387,37 @@
   </si>
   <si>
     <t>NotAffected</t>
+  </si>
+  <si>
+    <t>GENERAL_CO2_CAP</t>
+  </si>
+  <si>
+    <t>ENERGY_INTERCHANGE</t>
+  </si>
+  <si>
+    <t>Tech Used to Represent Other Options For CO2 Capture</t>
+  </si>
+  <si>
+    <t>Interchange of Energy in/out of NC</t>
+  </si>
+  <si>
+    <t>PV-RESIDENTIAL</t>
+  </si>
+  <si>
+    <t>PV-COMMERCIAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,8 +433,269 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="6"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="7"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,8 +708,193 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -438,11 +902,503 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="10"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,12 +1407,387 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="345">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1 2" xfId="44" xr:uid="{D1BA74DC-83FB-4A42-A51C-45D190AAF333}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="45" xr:uid="{86838D32-40CF-48B1-8085-194930BFDF78}"/>
+    <cellStyle name="20% - Accent1 2 2 2" xfId="179" xr:uid="{4237158F-2498-4D61-A8C3-D80D36E1DE19}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2" xfId="201" xr:uid="{8C066985-8537-40FE-830E-37D33A106E70}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 2" xfId="245" xr:uid="{91D8A033-D8EA-41CD-ACDC-BCF40D46E95E}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 2 2" xfId="333" xr:uid="{B438AB3E-2C44-4717-9DF0-313415FE78EA}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3" xfId="289" xr:uid="{0F614FAF-4924-4CE3-8A78-C50F7E321808}"/>
+    <cellStyle name="20% - Accent1 2 2 2 3" xfId="223" xr:uid="{B3B34F0F-52BC-4305-95CF-66F27E8A707C}"/>
+    <cellStyle name="20% - Accent1 2 2 2 3 2" xfId="311" xr:uid="{C0D7A494-9997-45D1-BEDD-FBD416593476}"/>
+    <cellStyle name="20% - Accent1 2 2 2 4" xfId="267" xr:uid="{CBA1BFB2-3895-4A16-85B3-06DF65B232AF}"/>
+    <cellStyle name="20% - Accent1 2 2 3" xfId="190" xr:uid="{37B4A576-B00F-46E2-B4A3-ED0DB2F93272}"/>
+    <cellStyle name="20% - Accent1 2 2 3 2" xfId="234" xr:uid="{1A5A188C-3A60-470A-92B3-AAE8A78D4E73}"/>
+    <cellStyle name="20% - Accent1 2 2 3 2 2" xfId="322" xr:uid="{9C650F1D-F360-44A9-928B-7001810C8D4A}"/>
+    <cellStyle name="20% - Accent1 2 2 3 3" xfId="278" xr:uid="{B22586EE-5B22-4FFE-AC0C-9BB7354C1014}"/>
+    <cellStyle name="20% - Accent1 2 2 4" xfId="212" xr:uid="{9776611E-2121-44D4-BCFD-8AA01080D261}"/>
+    <cellStyle name="20% - Accent1 2 2 4 2" xfId="300" xr:uid="{B10C7B4A-4B43-4604-96BC-CE932F461F95}"/>
+    <cellStyle name="20% - Accent1 2 2 5" xfId="256" xr:uid="{5E09A3C9-FBF9-4F7B-BBBA-3EA4A1754159}"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="46" xr:uid="{98A88E66-F530-402E-AAE1-A8049AAA16B8}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="47" xr:uid="{7EAB4F07-DDCA-42E8-8EA6-520DACEC2216}"/>
+    <cellStyle name="20% - Accent2 2 2 2" xfId="180" xr:uid="{2E144072-126C-4BBA-8E96-AEA02BDE7D02}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2" xfId="202" xr:uid="{2750338A-1A2E-4E1D-899A-474B4F673716}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 2" xfId="246" xr:uid="{7B737E72-E22B-4AAB-A69D-5183B3CFF82E}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 2 2" xfId="334" xr:uid="{570C3508-E568-4828-BD04-C48BCCC79F81}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3" xfId="290" xr:uid="{7AB9183C-0A7B-4244-9410-899F7D3BEF40}"/>
+    <cellStyle name="20% - Accent2 2 2 2 3" xfId="224" xr:uid="{C170DDD5-E642-40BA-8699-1C700388FBA7}"/>
+    <cellStyle name="20% - Accent2 2 2 2 3 2" xfId="312" xr:uid="{4C3A2E3F-3718-42EA-B8BB-6D71F3D4C29F}"/>
+    <cellStyle name="20% - Accent2 2 2 2 4" xfId="268" xr:uid="{B61AD2C5-24D0-48CB-882D-FE4FABB48FD4}"/>
+    <cellStyle name="20% - Accent2 2 2 3" xfId="191" xr:uid="{A4A263A6-14A9-4303-A421-9799B393616F}"/>
+    <cellStyle name="20% - Accent2 2 2 3 2" xfId="235" xr:uid="{3E5EE3CA-BE29-483F-A8F9-F130E138BBF5}"/>
+    <cellStyle name="20% - Accent2 2 2 3 2 2" xfId="323" xr:uid="{4770C35C-5DED-4612-944B-A1AAF25B24D8}"/>
+    <cellStyle name="20% - Accent2 2 2 3 3" xfId="279" xr:uid="{389BCFDF-ED7A-4719-8EA4-F368608D4E77}"/>
+    <cellStyle name="20% - Accent2 2 2 4" xfId="213" xr:uid="{3E7242C4-15A3-4DED-B9FF-75C7560817F4}"/>
+    <cellStyle name="20% - Accent2 2 2 4 2" xfId="301" xr:uid="{BA619873-631D-4E96-B8ED-522241722731}"/>
+    <cellStyle name="20% - Accent2 2 2 5" xfId="257" xr:uid="{C02A5154-079E-4920-A9CC-AF126D757B13}"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3 2" xfId="48" xr:uid="{DC522FF2-5135-47F8-8231-FAE1434E8429}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="49" xr:uid="{DB86EA4D-411D-4490-8746-F35305AFAFD1}"/>
+    <cellStyle name="20% - Accent3 2 2 2" xfId="181" xr:uid="{9D2E3CC1-2298-41C5-9497-38702A78A1D0}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2" xfId="203" xr:uid="{D15C3E12-3634-42DD-AA56-003E64BB9174}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2 2" xfId="247" xr:uid="{BB58F105-8B39-4C05-8140-23FF8BD6477F}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2 2 2" xfId="335" xr:uid="{9524EF3F-6B6A-41FE-BD7A-D9FDCE3DB159}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2 3" xfId="291" xr:uid="{741C1AB9-7DC3-4C3B-B7D9-680960112D67}"/>
+    <cellStyle name="20% - Accent3 2 2 2 3" xfId="225" xr:uid="{25F2C5AB-E3EB-4F9E-83EF-49D72205B544}"/>
+    <cellStyle name="20% - Accent3 2 2 2 3 2" xfId="313" xr:uid="{AE0323B5-CE45-4E82-879D-B811441C9A7A}"/>
+    <cellStyle name="20% - Accent3 2 2 2 4" xfId="269" xr:uid="{95C6563F-1578-45AA-B5C4-9FBC6903C95D}"/>
+    <cellStyle name="20% - Accent3 2 2 3" xfId="192" xr:uid="{87D49909-851F-4884-A3F6-722C2BF91484}"/>
+    <cellStyle name="20% - Accent3 2 2 3 2" xfId="236" xr:uid="{B7A8BCE4-4299-483E-A91D-036C201A55B0}"/>
+    <cellStyle name="20% - Accent3 2 2 3 2 2" xfId="324" xr:uid="{25CB62B2-6DC3-4D4D-806F-DA5DCA8E5E30}"/>
+    <cellStyle name="20% - Accent3 2 2 3 3" xfId="280" xr:uid="{7CEF4F36-2FCF-43FB-B121-FEED6F869004}"/>
+    <cellStyle name="20% - Accent3 2 2 4" xfId="214" xr:uid="{C21A21BB-56A1-4C76-A60E-1684CE1248C0}"/>
+    <cellStyle name="20% - Accent3 2 2 4 2" xfId="302" xr:uid="{E3081961-49F3-4D67-8461-57A0E76ACD42}"/>
+    <cellStyle name="20% - Accent3 2 2 5" xfId="258" xr:uid="{2A20DA48-1276-412D-B1CE-04C30406470A}"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4 2" xfId="50" xr:uid="{29352320-8B30-4618-B973-B845D15085AB}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="51" xr:uid="{B25D1931-A9EC-4C61-9C07-A60939995450}"/>
+    <cellStyle name="20% - Accent4 2 2 2" xfId="182" xr:uid="{B0DAACD4-C719-4B32-B75F-689613CF462D}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2" xfId="204" xr:uid="{99A2E3CB-C861-45ED-9650-9E4A7C083E74}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2 2" xfId="248" xr:uid="{9E995DA4-8E99-4916-A0B9-7B9FFAE9B296}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2 2 2" xfId="336" xr:uid="{A7A37BC1-DBED-4C85-9FD6-AC35F7A7533C}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2 3" xfId="292" xr:uid="{04D4A109-C6EA-48F8-A43D-62954AD07252}"/>
+    <cellStyle name="20% - Accent4 2 2 2 3" xfId="226" xr:uid="{AD03B5F7-4924-4E3B-84BE-C0490A1340D6}"/>
+    <cellStyle name="20% - Accent4 2 2 2 3 2" xfId="314" xr:uid="{553AC5DE-28DE-497D-BC9C-EB8F7BAB58F4}"/>
+    <cellStyle name="20% - Accent4 2 2 2 4" xfId="270" xr:uid="{8B4BD9BB-37A1-4CA8-82B6-0AC44544EE1E}"/>
+    <cellStyle name="20% - Accent4 2 2 3" xfId="193" xr:uid="{2144A901-1289-438B-B685-6E7761A714FD}"/>
+    <cellStyle name="20% - Accent4 2 2 3 2" xfId="237" xr:uid="{ECEB8972-8BB3-4039-9FE4-88013B5E3B31}"/>
+    <cellStyle name="20% - Accent4 2 2 3 2 2" xfId="325" xr:uid="{DD703F67-2EC3-4A99-8351-D0859EDD4E6A}"/>
+    <cellStyle name="20% - Accent4 2 2 3 3" xfId="281" xr:uid="{C4201DF7-7C20-4D80-ADD4-8C1286EC490C}"/>
+    <cellStyle name="20% - Accent4 2 2 4" xfId="215" xr:uid="{D4BCAB58-CD7D-4E62-A856-EA050C48593E}"/>
+    <cellStyle name="20% - Accent4 2 2 4 2" xfId="303" xr:uid="{3C626971-36A2-4BC9-B4B9-CC3067747A94}"/>
+    <cellStyle name="20% - Accent4 2 2 5" xfId="259" xr:uid="{9E39CB17-CC2E-4986-996E-038C9AEBAD78}"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculated" xfId="52" xr:uid="{08C02F09-FE43-4637-BBDB-AB55ACE08108}"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma 10" xfId="53" xr:uid="{79675EED-3E9E-4E79-97B5-B8BC36E98E03}"/>
+    <cellStyle name="Comma 10 2" xfId="183" xr:uid="{F31E4B8B-F5D4-400D-9A88-3E98334AB9B0}"/>
+    <cellStyle name="Comma 10 2 2" xfId="205" xr:uid="{67FD1A8E-C9B2-4A8C-A5AF-A6F9D383C7E0}"/>
+    <cellStyle name="Comma 10 2 2 2" xfId="249" xr:uid="{2D61A9A7-7AFF-4FA3-9F8F-C1D80E7DB63E}"/>
+    <cellStyle name="Comma 10 2 2 2 2" xfId="337" xr:uid="{537FB408-2460-4184-8E22-7220A8658F5F}"/>
+    <cellStyle name="Comma 10 2 2 3" xfId="293" xr:uid="{C36F5C86-70A4-4ED7-A925-9F6FBFF06254}"/>
+    <cellStyle name="Comma 10 2 3" xfId="227" xr:uid="{50FB3850-3875-4473-9F38-7A3EBEA6F239}"/>
+    <cellStyle name="Comma 10 2 3 2" xfId="315" xr:uid="{AB005677-0F19-4C36-9A62-369C0AF9E1D9}"/>
+    <cellStyle name="Comma 10 2 4" xfId="271" xr:uid="{9ACECF9D-5766-40D2-94B3-0B6F01DDEB1B}"/>
+    <cellStyle name="Comma 10 3" xfId="194" xr:uid="{815A2161-8D93-45F1-BB72-96E08AF89F56}"/>
+    <cellStyle name="Comma 10 3 2" xfId="238" xr:uid="{33B0A72C-9EB4-4C08-96F8-D6568FA68C46}"/>
+    <cellStyle name="Comma 10 3 2 2" xfId="326" xr:uid="{34ADBC31-A71C-4706-9279-94844BFF3745}"/>
+    <cellStyle name="Comma 10 3 3" xfId="282" xr:uid="{A7753ECE-5469-468C-9BEF-35CC4627A618}"/>
+    <cellStyle name="Comma 10 4" xfId="216" xr:uid="{CFE9B559-A80D-443D-A1A5-0585C995DDB6}"/>
+    <cellStyle name="Comma 10 4 2" xfId="304" xr:uid="{9D077CDA-3E2E-44BD-8A32-589103AF3182}"/>
+    <cellStyle name="Comma 10 5" xfId="260" xr:uid="{08E94328-2477-42AE-9B60-4C432C7E470A}"/>
+    <cellStyle name="Comma 11" xfId="54" xr:uid="{9268F164-549A-452E-8270-674518658CCA}"/>
+    <cellStyle name="Comma 12" xfId="344" xr:uid="{DF45A5DA-341C-42B3-9CCF-335E56A00CFC}"/>
+    <cellStyle name="Comma 2" xfId="55" xr:uid="{A7BA4052-3D65-491F-A238-C1FA4272D4E4}"/>
+    <cellStyle name="Comma 2 2" xfId="56" xr:uid="{75022E60-2FF8-4B4A-873E-31BD2C4D5A0B}"/>
+    <cellStyle name="Comma 2 2 2" xfId="184" xr:uid="{28C5A02F-1C79-4562-8979-75B15842EC4E}"/>
+    <cellStyle name="Comma 2 2 2 2" xfId="206" xr:uid="{B89BAABB-2EE3-4AB6-8C20-5435232F8529}"/>
+    <cellStyle name="Comma 2 2 2 2 2" xfId="250" xr:uid="{6E3AF6C7-73CE-4CC9-9537-CF70E2FD1CC3}"/>
+    <cellStyle name="Comma 2 2 2 2 2 2" xfId="338" xr:uid="{D88DF721-A35F-4232-B178-F6B33C176753}"/>
+    <cellStyle name="Comma 2 2 2 2 3" xfId="294" xr:uid="{0E6D57A2-841A-4D21-81C9-9E6A89E571E5}"/>
+    <cellStyle name="Comma 2 2 2 3" xfId="228" xr:uid="{5E7D960A-8EF2-4D17-A837-23932E650E4E}"/>
+    <cellStyle name="Comma 2 2 2 3 2" xfId="316" xr:uid="{832396DA-6497-45FC-BC05-C074908F0733}"/>
+    <cellStyle name="Comma 2 2 2 4" xfId="272" xr:uid="{866FE539-021C-4E41-8B0F-516B4C27E8AE}"/>
+    <cellStyle name="Comma 2 2 3" xfId="195" xr:uid="{30FB80D7-05D0-4FAC-8C3C-B7B1C3690357}"/>
+    <cellStyle name="Comma 2 2 3 2" xfId="239" xr:uid="{087689DA-3643-4CFC-974D-FE0168BA1568}"/>
+    <cellStyle name="Comma 2 2 3 2 2" xfId="327" xr:uid="{66E4ADDD-1B20-4493-B6D1-408EB290AFB8}"/>
+    <cellStyle name="Comma 2 2 3 3" xfId="283" xr:uid="{1A071CC3-613F-4530-A522-5EFDF81488D7}"/>
+    <cellStyle name="Comma 2 2 4" xfId="217" xr:uid="{DBAE9877-E3F1-4B43-9EB8-53B4F742F899}"/>
+    <cellStyle name="Comma 2 2 4 2" xfId="305" xr:uid="{A7D09D5B-008F-48B3-BA18-C2E8EE12B823}"/>
+    <cellStyle name="Comma 2 2 5" xfId="261" xr:uid="{7C5EB54A-46BD-4883-B75F-41A545279BFF}"/>
+    <cellStyle name="Comma 3" xfId="57" xr:uid="{428CD362-7B26-4019-9CB5-204FEAEF8E18}"/>
+    <cellStyle name="Comma 3 2" xfId="58" xr:uid="{6B9D9550-D751-4280-B204-332728E937B3}"/>
+    <cellStyle name="Comma 3 2 2" xfId="185" xr:uid="{B300F218-0743-4360-94C0-62E1D83FF830}"/>
+    <cellStyle name="Comma 3 2 2 2" xfId="207" xr:uid="{C34729E3-4AB1-49E7-9A87-0A9115752A6D}"/>
+    <cellStyle name="Comma 3 2 2 2 2" xfId="251" xr:uid="{FD1268F8-3E53-4892-8BAC-12EE6EFCF375}"/>
+    <cellStyle name="Comma 3 2 2 2 2 2" xfId="339" xr:uid="{E3384DCA-520A-4118-BD65-D051A90EDC45}"/>
+    <cellStyle name="Comma 3 2 2 2 3" xfId="295" xr:uid="{780C03E2-835D-474F-A193-AC3E805E61CD}"/>
+    <cellStyle name="Comma 3 2 2 3" xfId="229" xr:uid="{BADBB4A0-3E58-4E9D-871E-9B3141A7927F}"/>
+    <cellStyle name="Comma 3 2 2 3 2" xfId="317" xr:uid="{983390CC-176B-421B-BF6C-9D8B457FB1A9}"/>
+    <cellStyle name="Comma 3 2 2 4" xfId="273" xr:uid="{4EB54C02-AC31-4CAD-9EB3-DBDCB1D5C4A2}"/>
+    <cellStyle name="Comma 3 2 3" xfId="196" xr:uid="{4941CAC8-5B2C-45B7-BC83-A3D159FC28D0}"/>
+    <cellStyle name="Comma 3 2 3 2" xfId="240" xr:uid="{ADF53A63-37BD-417A-9446-0A0F97412D6A}"/>
+    <cellStyle name="Comma 3 2 3 2 2" xfId="328" xr:uid="{1BDD0752-340D-4837-93C3-EC6D310AB0B0}"/>
+    <cellStyle name="Comma 3 2 3 3" xfId="284" xr:uid="{DC65B6F2-1618-4F3A-9989-D5FB85FF38B2}"/>
+    <cellStyle name="Comma 3 2 4" xfId="218" xr:uid="{93DC8F88-FC57-49D1-8558-7EB9E117FA97}"/>
+    <cellStyle name="Comma 3 2 4 2" xfId="306" xr:uid="{2D1B14C6-D89E-4126-9C12-8078A5EAA018}"/>
+    <cellStyle name="Comma 3 2 5" xfId="262" xr:uid="{4354EC06-37F7-4B8A-AF9C-7F5CB3651CF5}"/>
+    <cellStyle name="Comma 4" xfId="59" xr:uid="{70932B3B-0296-4550-8C0D-B2836FF59DFF}"/>
+    <cellStyle name="Comma 5" xfId="60" xr:uid="{9717256D-F4C7-4996-A06C-22EDDB289DC5}"/>
+    <cellStyle name="Comma 6" xfId="61" xr:uid="{5D224321-B6A3-4711-B31C-7F98C0BDD99C}"/>
+    <cellStyle name="Comma 7" xfId="62" xr:uid="{431606F3-F3A6-4BA2-9F28-08641F672DAB}"/>
+    <cellStyle name="Comma 8" xfId="63" xr:uid="{0A739499-DBFF-40B5-836E-DB8A5520F056}"/>
+    <cellStyle name="Comma 9" xfId="64" xr:uid="{53988132-050D-4D12-A43B-A05AAE1EF8AC}"/>
+    <cellStyle name="Currency 2" xfId="65" xr:uid="{C6A0B42B-75BB-4DD5-B2D3-844D66A559A9}"/>
+    <cellStyle name="Currency 3" xfId="66" xr:uid="{D7BE89BD-41F7-4524-A58E-93E43A021FCA}"/>
+    <cellStyle name="Currency 4" xfId="67" xr:uid="{CB069C6D-7BB7-4AC0-AA58-FF10A7300495}"/>
+    <cellStyle name="Currency 5" xfId="68" xr:uid="{A8FB1FDB-DC56-41AB-8228-9195C0CED6A9}"/>
+    <cellStyle name="Currency 6" xfId="69" xr:uid="{E8E9E5F5-C53A-4279-A2EF-422FBE76D234}"/>
+    <cellStyle name="Currency 7" xfId="70" xr:uid="{7362DF1B-08B3-4CAB-9C98-00E3D2F9A941}"/>
+    <cellStyle name="Currency 8" xfId="71" xr:uid="{559822CA-66A9-4616-8548-6F08885EAEBA}"/>
+    <cellStyle name="Currency 8 2" xfId="186" xr:uid="{49F7CA14-E229-4217-902F-EBED50A60C85}"/>
+    <cellStyle name="Currency 8 2 2" xfId="208" xr:uid="{5EDC31D7-3D31-4EC8-91EC-2B2BCC8D74F0}"/>
+    <cellStyle name="Currency 8 2 2 2" xfId="252" xr:uid="{FD1A7BFE-DD37-4B05-88D7-9EEBA42A3973}"/>
+    <cellStyle name="Currency 8 2 2 2 2" xfId="340" xr:uid="{04C8A0B4-9ED7-4796-A4A8-819D529CBEC6}"/>
+    <cellStyle name="Currency 8 2 2 3" xfId="296" xr:uid="{4B6280A7-FC81-4441-9E1B-A0323220D1C1}"/>
+    <cellStyle name="Currency 8 2 3" xfId="230" xr:uid="{B0F6D6FE-DF91-434C-9C53-ADC4FAF12B56}"/>
+    <cellStyle name="Currency 8 2 3 2" xfId="318" xr:uid="{898F1003-74C3-453C-A06A-07E5695192C2}"/>
+    <cellStyle name="Currency 8 2 4" xfId="274" xr:uid="{1003A9C4-8988-45F1-BA91-15DFD5423568}"/>
+    <cellStyle name="Currency 8 3" xfId="197" xr:uid="{C5A14967-5DC5-4A57-B76A-A63DD0DCC6E9}"/>
+    <cellStyle name="Currency 8 3 2" xfId="241" xr:uid="{D91F2586-225C-4A9D-8F05-72F456F151E4}"/>
+    <cellStyle name="Currency 8 3 2 2" xfId="329" xr:uid="{4805EA79-EFB7-47B2-AE62-29DFDF92B9AB}"/>
+    <cellStyle name="Currency 8 3 3" xfId="285" xr:uid="{058EA472-1F34-4F42-AAE5-DC8E16F05F48}"/>
+    <cellStyle name="Currency 8 4" xfId="219" xr:uid="{FF0AB0C0-F189-470A-B23F-A8C0485017F2}"/>
+    <cellStyle name="Currency 8 4 2" xfId="307" xr:uid="{D4115E89-C2E5-400C-B0CC-0A27168C317A}"/>
+    <cellStyle name="Currency 8 5" xfId="263" xr:uid="{82C2FB32-A7FC-4EDF-80A2-E63794E40BC3}"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading" xfId="72" xr:uid="{710A1C95-785B-44AA-9C5D-8CAACC4D617C}"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 2 2" xfId="73" xr:uid="{FCAE7AD1-9277-4BFA-B815-0E7277ED51ED}"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Heading2" xfId="74" xr:uid="{6F98A0FE-F879-4392-8198-51E28DDC3576}"/>
+    <cellStyle name="Hyperlink 10" xfId="75" xr:uid="{FFAD67E6-C89E-4442-97E3-670FA13BB9B4}"/>
+    <cellStyle name="Hyperlink 10 2" xfId="76" xr:uid="{E88E2E40-9052-49D1-9A17-78179571D0B4}"/>
+    <cellStyle name="Hyperlink 10 3" xfId="77" xr:uid="{705C68A6-F7EA-49BC-B3B6-56EA6CC05808}"/>
+    <cellStyle name="Hyperlink 11" xfId="78" xr:uid="{7976574D-2A1D-441A-8F47-90CAE36A9772}"/>
+    <cellStyle name="Hyperlink 11 2" xfId="79" xr:uid="{8C4B4C31-D96B-45D0-ABC7-44DAC06C6BA0}"/>
+    <cellStyle name="Hyperlink 11 3" xfId="80" xr:uid="{664449CB-B938-48AD-A07C-BA99C309321C}"/>
+    <cellStyle name="Hyperlink 12" xfId="81" xr:uid="{B17C4AF0-C9F4-47FD-9DBC-FAFB411F6FC8}"/>
+    <cellStyle name="Hyperlink 12 2" xfId="82" xr:uid="{0C8F9743-C6D8-4AC0-AA14-C42035D952E2}"/>
+    <cellStyle name="Hyperlink 12 3" xfId="83" xr:uid="{971C80FF-2A67-4645-942D-2AB09BB01C95}"/>
+    <cellStyle name="Hyperlink 13" xfId="84" xr:uid="{1C23923C-1B22-4E0E-97F0-942969F1A330}"/>
+    <cellStyle name="Hyperlink 13 2" xfId="85" xr:uid="{B7AFE7AD-C299-4587-966F-EB411C0568DE}"/>
+    <cellStyle name="Hyperlink 13 3" xfId="86" xr:uid="{501EB93B-B62C-4B9A-A374-833C8F9A7569}"/>
+    <cellStyle name="Hyperlink 14" xfId="87" xr:uid="{37D8BEB9-1FEA-4F03-82E8-BFD0647F0705}"/>
+    <cellStyle name="Hyperlink 14 2" xfId="88" xr:uid="{519E3219-FEA7-4EE8-9327-CFC2D587122A}"/>
+    <cellStyle name="Hyperlink 14 3" xfId="89" xr:uid="{4AE808E3-C2CD-432E-9EC7-259312262779}"/>
+    <cellStyle name="Hyperlink 15" xfId="90" xr:uid="{C663EDDC-4B93-416F-8329-9B92F7CABA94}"/>
+    <cellStyle name="Hyperlink 15 2" xfId="91" xr:uid="{29D3F7E9-F096-4C07-B4BA-5B3A33DACDD6}"/>
+    <cellStyle name="Hyperlink 15 3" xfId="92" xr:uid="{CD0EFBA3-8F09-48EA-A64F-DC98D535B18C}"/>
+    <cellStyle name="Hyperlink 16" xfId="93" xr:uid="{2ECC7478-7038-49EE-AB04-AAE8825C5101}"/>
+    <cellStyle name="Hyperlink 16 2" xfId="94" xr:uid="{19FB113B-09E1-4C16-AD1C-919E17904B9A}"/>
+    <cellStyle name="Hyperlink 16 3" xfId="95" xr:uid="{A171D7E4-DA58-4A66-A45A-3137DDEE1684}"/>
+    <cellStyle name="Hyperlink 17" xfId="96" xr:uid="{8CA45ED6-9F17-43A1-84C9-C38D08C0D093}"/>
+    <cellStyle name="Hyperlink 17 2" xfId="97" xr:uid="{14E10923-5CAF-4DBF-A33A-CA09A97184AF}"/>
+    <cellStyle name="Hyperlink 17 3" xfId="98" xr:uid="{18F8A054-C576-4DAB-9423-1E7F2FFA4088}"/>
+    <cellStyle name="Hyperlink 18" xfId="99" xr:uid="{BF5909B9-0810-4733-86C2-F143364C5F55}"/>
+    <cellStyle name="Hyperlink 18 2" xfId="100" xr:uid="{27E6E12B-AC0F-4896-9B58-0752E405E394}"/>
+    <cellStyle name="Hyperlink 18 3" xfId="101" xr:uid="{4E33C6E9-1E73-46B5-87E8-04FC8421655B}"/>
+    <cellStyle name="Hyperlink 19" xfId="102" xr:uid="{3B7083BA-D241-4696-871B-04813964719D}"/>
+    <cellStyle name="Hyperlink 19 2" xfId="103" xr:uid="{DF747A77-AF23-4202-AD73-DA6BD0B56263}"/>
+    <cellStyle name="Hyperlink 19 3" xfId="104" xr:uid="{837A84EB-FAF6-462C-B8B2-2D53949FF8B8}"/>
+    <cellStyle name="Hyperlink 2" xfId="105" xr:uid="{C80192F4-405B-42AC-9609-779CEF06671F}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="106" xr:uid="{0D0A11A6-4CD3-4078-BD32-5318D4E6337A}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="107" xr:uid="{C7389BED-329D-453D-95F2-F9C94AC26626}"/>
+    <cellStyle name="Hyperlink 20" xfId="108" xr:uid="{64D974F0-4C9B-437E-ADC2-33C7D982079A}"/>
+    <cellStyle name="Hyperlink 20 2" xfId="109" xr:uid="{EE37449C-C96E-4202-9E3E-D041A8E2D373}"/>
+    <cellStyle name="Hyperlink 20 3" xfId="110" xr:uid="{C9AE44F5-76B6-4EB4-BC11-D9851789E021}"/>
+    <cellStyle name="Hyperlink 21" xfId="111" xr:uid="{19C7DFDF-5373-4966-AABA-A6EEE1DE9B23}"/>
+    <cellStyle name="Hyperlink 21 2" xfId="112" xr:uid="{3C8E823E-E5D3-4096-B936-1C86FE29673B}"/>
+    <cellStyle name="Hyperlink 21 3" xfId="113" xr:uid="{15CBCCBE-1B93-4A96-9995-91B18F6D24F6}"/>
+    <cellStyle name="Hyperlink 22" xfId="114" xr:uid="{C3033D76-F475-4CB0-BC94-17D122D44E14}"/>
+    <cellStyle name="Hyperlink 22 2" xfId="115" xr:uid="{157D96BB-F9E7-4FE6-8169-6D4BC642C6D7}"/>
+    <cellStyle name="Hyperlink 22 3" xfId="116" xr:uid="{D09476D6-E7D0-49B9-A7F8-218166D95CC6}"/>
+    <cellStyle name="Hyperlink 23" xfId="117" xr:uid="{DD040903-BD73-4D00-A48C-8D21C0E89B04}"/>
+    <cellStyle name="Hyperlink 23 2" xfId="118" xr:uid="{3AB12BD5-B14E-4E3C-B6B7-2614767BBCAA}"/>
+    <cellStyle name="Hyperlink 23 3" xfId="119" xr:uid="{8C1501B3-1ACE-48AE-9ABA-5C7E61AE07F7}"/>
+    <cellStyle name="Hyperlink 24" xfId="120" xr:uid="{28A6A736-D29E-4E0D-860A-FDB8CFCC96C2}"/>
+    <cellStyle name="Hyperlink 25" xfId="121" xr:uid="{2A9C03C4-C6E0-4E5F-A09B-A1C918CBDB69}"/>
+    <cellStyle name="Hyperlink 26" xfId="122" xr:uid="{8B888674-BA44-43E1-BB32-E1B7B311E736}"/>
+    <cellStyle name="Hyperlink 27" xfId="123" xr:uid="{2D4BFECC-706B-49FD-837C-C83BE4135A1E}"/>
+    <cellStyle name="Hyperlink 28" xfId="124" xr:uid="{4FD79A37-F329-47B2-A790-E72A07047863}"/>
+    <cellStyle name="Hyperlink 29" xfId="125" xr:uid="{3CB5C4C1-57E3-4303-81B2-6257F328C825}"/>
+    <cellStyle name="Hyperlink 3" xfId="126" xr:uid="{95C5230F-B03F-4FE8-973F-C2EE35009336}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="127" xr:uid="{7063D59F-997F-4812-A427-ADABDAB0ECB4}"/>
+    <cellStyle name="Hyperlink 3 3" xfId="128" xr:uid="{A51576BE-8328-4AB2-A040-392F0D219EED}"/>
+    <cellStyle name="Hyperlink 30" xfId="129" xr:uid="{B6C45736-48F8-4413-AC16-BB05DC421866}"/>
+    <cellStyle name="Hyperlink 31" xfId="130" xr:uid="{9D82453D-F671-42C5-8DD9-587047CDACCB}"/>
+    <cellStyle name="Hyperlink 32" xfId="131" xr:uid="{DE3FA924-28E0-4E6A-94BF-894C27D6B0F8}"/>
+    <cellStyle name="Hyperlink 33" xfId="132" xr:uid="{30AE7C01-39E5-4ABA-8FDB-62625523E00C}"/>
+    <cellStyle name="Hyperlink 33 2" xfId="133" xr:uid="{9C9C4F6B-ABC2-46D1-B0A4-9590F6A5D845}"/>
+    <cellStyle name="Hyperlink 33 3" xfId="134" xr:uid="{3A4DCA5F-4D8B-4F36-8DCD-F11D3065106C}"/>
+    <cellStyle name="Hyperlink 34" xfId="135" xr:uid="{B9ED030C-3835-4A35-919F-B7E0D5E6F483}"/>
+    <cellStyle name="Hyperlink 34 2" xfId="136" xr:uid="{8123641B-8F7F-45A2-96A4-A970560FFD40}"/>
+    <cellStyle name="Hyperlink 34 3" xfId="137" xr:uid="{4C0AD5D8-9778-4482-97E1-43272FAFB8CE}"/>
+    <cellStyle name="Hyperlink 34 4" xfId="138" xr:uid="{CA6F68A7-036E-4CEB-A019-319E580C34FB}"/>
+    <cellStyle name="Hyperlink 34 5" xfId="139" xr:uid="{4DAC4214-612D-485E-AA7E-14F403C75517}"/>
+    <cellStyle name="Hyperlink 4" xfId="140" xr:uid="{D78D4B2E-FDB4-4001-9829-ECAE732EAEC9}"/>
+    <cellStyle name="Hyperlink 4 2" xfId="141" xr:uid="{16196B8C-9597-4D3F-B9E9-E49B08C2D33B}"/>
+    <cellStyle name="Hyperlink 4 3" xfId="142" xr:uid="{84AC95E0-40EC-4558-9D92-9DC6D9A7AF0D}"/>
+    <cellStyle name="Hyperlink 5" xfId="143" xr:uid="{DACB8A37-80D8-4733-843D-6E8370B8391A}"/>
+    <cellStyle name="Hyperlink 5 2" xfId="144" xr:uid="{3D499DF6-9693-4E94-A600-872E42DCC386}"/>
+    <cellStyle name="Hyperlink 5 3" xfId="145" xr:uid="{67E471A7-32AE-4433-98F6-5769A68CF8EB}"/>
+    <cellStyle name="Hyperlink 6" xfId="146" xr:uid="{5BC3832B-1554-4E2A-B679-E0595285F459}"/>
+    <cellStyle name="Hyperlink 6 2" xfId="147" xr:uid="{B250D22A-37A5-4EFE-A5E7-70E52BAB866C}"/>
+    <cellStyle name="Hyperlink 6 3" xfId="148" xr:uid="{3B81395C-B967-4803-9549-DBC36871DB67}"/>
+    <cellStyle name="Hyperlink 7" xfId="149" xr:uid="{D912BFD1-9F6C-44EF-90BA-7019732A1DA4}"/>
+    <cellStyle name="Hyperlink 7 2" xfId="150" xr:uid="{8904C6FF-34F7-4DD4-B584-1D7E7BBA9779}"/>
+    <cellStyle name="Hyperlink 7 3" xfId="151" xr:uid="{7EF890B8-DA61-4FF5-B774-66D09C91CA58}"/>
+    <cellStyle name="Hyperlink 8" xfId="152" xr:uid="{9D795433-5A12-4A7B-A1FA-C4BA364E91CB}"/>
+    <cellStyle name="Hyperlink 8 2" xfId="153" xr:uid="{9D802764-2FC4-459D-A6E8-2447C40C7BF5}"/>
+    <cellStyle name="Hyperlink 8 3" xfId="154" xr:uid="{B912C553-658F-411E-A14F-97B80DBBD1DB}"/>
+    <cellStyle name="Hyperlink 9" xfId="155" xr:uid="{7561B99A-FDD7-4822-895A-E8C5E4351927}"/>
+    <cellStyle name="Hyperlink 9 2" xfId="156" xr:uid="{432B73D4-C9CA-4138-9FB0-5B18876FF59C}"/>
+    <cellStyle name="Hyperlink 9 3" xfId="157" xr:uid="{508B724C-FD73-4B67-8D04-4F82F0916189}"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Input 2" xfId="158" xr:uid="{F1A2A6F8-A9AC-4C6E-879F-B7308AF5F79C}"/>
+    <cellStyle name="Linked" xfId="159" xr:uid="{9CE472E3-77AA-4B22-B4AE-E903EE9E1AC7}"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="43" xr:uid="{C90EBA6E-CE41-4602-A93A-78F2862E384C}"/>
+    <cellStyle name="Normal 2 2" xfId="42" xr:uid="{558C0521-DEB1-4E3E-8D7B-222F9D4C2CA7}"/>
+    <cellStyle name="Normal 2 2 2" xfId="160" xr:uid="{34E93573-C701-4E0B-80DC-B3FDCB573E0A}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="187" xr:uid="{BC29AB77-1EA0-402A-8523-6C3495554E17}"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="209" xr:uid="{FE91DA7B-408F-4872-81D0-B6CA45394B05}"/>
+    <cellStyle name="Normal 2 2 2 2 2 2" xfId="253" xr:uid="{2410F9EA-B248-4EC0-97C8-5C77440094E6}"/>
+    <cellStyle name="Normal 2 2 2 2 2 2 2" xfId="341" xr:uid="{ADEED09E-89A6-4C2D-9238-37B08E62A682}"/>
+    <cellStyle name="Normal 2 2 2 2 2 3" xfId="297" xr:uid="{6946EDAA-F019-4C6A-9124-D390C2CBD64A}"/>
+    <cellStyle name="Normal 2 2 2 2 3" xfId="231" xr:uid="{61257D90-173E-47B4-BE76-A8F9E52F9EC6}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2" xfId="319" xr:uid="{964B69A4-40C9-4D64-BDC8-708BD9DEAC64}"/>
+    <cellStyle name="Normal 2 2 2 2 4" xfId="275" xr:uid="{0EA4345F-0EF9-48B3-A451-A3102671C7E1}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="198" xr:uid="{0A766C16-F809-43A6-9CBC-845CBB2FDB9F}"/>
+    <cellStyle name="Normal 2 2 2 3 2" xfId="242" xr:uid="{50C5EBE5-0F29-45E0-88D5-E877306F5575}"/>
+    <cellStyle name="Normal 2 2 2 3 2 2" xfId="330" xr:uid="{33D37582-A594-408C-83EA-A5EAB41A85A5}"/>
+    <cellStyle name="Normal 2 2 2 3 3" xfId="286" xr:uid="{DA0FAFB2-80B1-4ECD-97B4-5B08C8E397F8}"/>
+    <cellStyle name="Normal 2 2 2 4" xfId="220" xr:uid="{6394D9AA-9ECA-40C7-8127-5B865C3AC070}"/>
+    <cellStyle name="Normal 2 2 2 4 2" xfId="308" xr:uid="{1579E915-D4DD-4E2B-A845-98031FDD9465}"/>
+    <cellStyle name="Normal 2 2 2 5" xfId="264" xr:uid="{10C67D2C-A72D-405E-B4A5-44A435BA4965}"/>
+    <cellStyle name="Normal 3" xfId="161" xr:uid="{52112C3A-7AB6-4D90-A7AD-0253A8E84411}"/>
+    <cellStyle name="Normal 4" xfId="162" xr:uid="{3E3C9078-A6B9-4629-AA8F-76483DFEA8FD}"/>
+    <cellStyle name="Normal 5" xfId="163" xr:uid="{9035E42A-248F-44A2-B1F0-E6C8D96E182F}"/>
+    <cellStyle name="Normal 6" xfId="164" xr:uid="{D354ECBB-CDDD-4A64-82EE-73D5526B7CB8}"/>
+    <cellStyle name="Normal 6 2" xfId="188" xr:uid="{6B1FF9BA-B602-49A3-B2CE-3F4E97AF7785}"/>
+    <cellStyle name="Normal 6 2 2" xfId="210" xr:uid="{30AE4E22-F38C-472E-BD12-48C1B36AB6D2}"/>
+    <cellStyle name="Normal 6 2 2 2" xfId="254" xr:uid="{BD2F0F2C-0007-4CC5-9864-9A1AED993619}"/>
+    <cellStyle name="Normal 6 2 2 2 2" xfId="342" xr:uid="{199EBD64-BA2A-4CDA-B719-1E27C3087529}"/>
+    <cellStyle name="Normal 6 2 2 3" xfId="298" xr:uid="{77706249-AF1B-409B-B251-69428722B1FE}"/>
+    <cellStyle name="Normal 6 2 3" xfId="232" xr:uid="{72E2BC6C-EBC6-48C9-BE75-254F8D9AC674}"/>
+    <cellStyle name="Normal 6 2 3 2" xfId="320" xr:uid="{03A13E5B-189F-4671-ADEC-0B764FDAF014}"/>
+    <cellStyle name="Normal 6 2 4" xfId="276" xr:uid="{945857E4-B77F-478A-A191-61E1868A7A45}"/>
+    <cellStyle name="Normal 6 3" xfId="199" xr:uid="{770DFBB4-47C0-4747-8083-6B9F47598A8D}"/>
+    <cellStyle name="Normal 6 3 2" xfId="243" xr:uid="{BCA13636-50D8-418D-BDD6-92D7402975F1}"/>
+    <cellStyle name="Normal 6 3 2 2" xfId="331" xr:uid="{373BB96D-13D8-4AA8-ADD6-4B5D1FAD6475}"/>
+    <cellStyle name="Normal 6 3 3" xfId="287" xr:uid="{8C9C5C7D-C3C5-4EB0-8BF4-43282646DDDD}"/>
+    <cellStyle name="Normal 6 4" xfId="221" xr:uid="{C3DF2CEE-0DD9-4AEB-8C8D-4118D8D82AE2}"/>
+    <cellStyle name="Normal 6 4 2" xfId="309" xr:uid="{20E97199-217B-4428-99B0-7402E65469F5}"/>
+    <cellStyle name="Normal 6 5" xfId="265" xr:uid="{E8095340-3F72-40E8-B52A-3ED9391709D3}"/>
+    <cellStyle name="Normal 7" xfId="165" xr:uid="{8E37BC94-6248-4291-A835-2D32B6ED6AE1}"/>
+    <cellStyle name="Normal 8" xfId="166" xr:uid="{7587C3D6-3C40-4AEA-92F9-F66262A157B7}"/>
+    <cellStyle name="Normal Small" xfId="167" xr:uid="{4BFAFF29-2850-408F-BC2E-8BFEA2F6B0F1}"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent 2" xfId="168" xr:uid="{F009B210-1C10-4179-A961-E3B815DA4B13}"/>
+    <cellStyle name="Percent 2 2" xfId="169" xr:uid="{F6B41439-886E-485A-A7B3-FE1E8D4E71D9}"/>
+    <cellStyle name="Percent 2 3" xfId="170" xr:uid="{6B61544A-05D1-4AC2-BE4E-39C4E6116C53}"/>
+    <cellStyle name="Percent 2 4" xfId="189" xr:uid="{A734BA85-0702-4C25-A68E-573DAA46D570}"/>
+    <cellStyle name="Percent 2 4 2" xfId="211" xr:uid="{17FB2602-43F9-4C94-8583-27B4956BA00F}"/>
+    <cellStyle name="Percent 2 4 2 2" xfId="255" xr:uid="{C31A7D5C-5DD6-4258-8ECE-BCD37D3E0F8D}"/>
+    <cellStyle name="Percent 2 4 2 2 2" xfId="343" xr:uid="{BE748E7D-F3C6-4DFF-97D5-8189FEE4D34D}"/>
+    <cellStyle name="Percent 2 4 2 3" xfId="299" xr:uid="{F999CE99-16F0-44E4-AA94-48F8DDA8C9EC}"/>
+    <cellStyle name="Percent 2 4 3" xfId="233" xr:uid="{528DE466-6E80-4ACC-920B-52E503ED199A}"/>
+    <cellStyle name="Percent 2 4 3 2" xfId="321" xr:uid="{F82FE164-98BD-4A66-B6FC-A9B8DA165989}"/>
+    <cellStyle name="Percent 2 4 4" xfId="277" xr:uid="{28A1BA26-44E6-40DD-8345-D1D4D636E7A0}"/>
+    <cellStyle name="Percent 2 5" xfId="200" xr:uid="{0E0A2722-AC63-441A-85E7-1DA3961ADEA1}"/>
+    <cellStyle name="Percent 2 5 2" xfId="244" xr:uid="{8C847ED3-2B31-487B-B385-0A7C1CB92858}"/>
+    <cellStyle name="Percent 2 5 2 2" xfId="332" xr:uid="{F467647D-1963-44CE-AF80-956AB4AC3F72}"/>
+    <cellStyle name="Percent 2 5 3" xfId="288" xr:uid="{9F51FD34-BE36-489C-8411-2787269B5868}"/>
+    <cellStyle name="Percent 2 6" xfId="222" xr:uid="{D0018144-8AD2-4F08-8316-01E60FE5808C}"/>
+    <cellStyle name="Percent 2 6 2" xfId="310" xr:uid="{B8CA9BBF-920A-48CD-93DB-4D772699842A}"/>
+    <cellStyle name="Percent 2 7" xfId="266" xr:uid="{BC2A21D5-3EB1-4299-89FF-9BDD878E1A97}"/>
+    <cellStyle name="Percent 3" xfId="171" xr:uid="{CCF9DB94-680C-411D-9817-E50975ACB7A8}"/>
+    <cellStyle name="Percent 3 2" xfId="172" xr:uid="{4C5373A7-D927-4857-863E-B4579A284AA8}"/>
+    <cellStyle name="Results" xfId="173" xr:uid="{5C04F51C-9A09-4207-88D6-500D576ADA10}"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title 2" xfId="174" xr:uid="{4E6E8E7D-A739-4164-8869-9D1AEA08986F}"/>
+    <cellStyle name="Title 3" xfId="175" xr:uid="{4ADB9030-9CB4-4059-9C40-85F77CD3CDED}"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Unit" xfId="176" xr:uid="{5725D8F1-F9A9-430E-B945-46407FCA8ED7}"/>
+    <cellStyle name="UserInput" xfId="177" xr:uid="{27E19DAB-8473-42B5-BDAE-C938D1939A99}"/>
+    <cellStyle name="Variable" xfId="178" xr:uid="{3C0512E0-C433-4BA0-95B3-72C7E484E078}"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{DF529378-0260-4236-84F9-2770E5C8ACC9}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -731,20 +2062,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403AAC54-22D7-42C6-84BF-5B756562A678}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,304 +2086,304 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
       <c r="C7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>79</v>
       </c>
-      <c r="C8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1060,304 +2391,326 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="3" customFormat="1">
+      <c r="A54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="3" customFormat="1">
+      <c r="A55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="3" customFormat="1">
+      <c r="A56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B58" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\FragilityCurvesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EAC519-85BD-416F-9111-A5AD803DA490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36E93F6-9F2E-48E9-85C8-4105A7A843D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="137">
   <si>
     <t>Technologies</t>
   </si>
@@ -405,6 +405,48 @@
   </si>
   <si>
     <t>PV-COMMERCIAL</t>
+  </si>
+  <si>
+    <t>NG_F-FRAME_CC_NEW_NO_RFIT</t>
+  </si>
+  <si>
+    <t>NG_F-FRAME_CT_NEW_NO_RFIT</t>
+  </si>
+  <si>
+    <t>NG_H-FRAME_CC_NEW_NO_RFIT</t>
+  </si>
+  <si>
+    <t>COAL_NEW_NO_RFIT</t>
+  </si>
+  <si>
+    <t>NG_F-FRAME_CC_NEW_RFIT</t>
+  </si>
+  <si>
+    <t>NG_F-FRAME_CT_NEW_RFIT</t>
+  </si>
+  <si>
+    <t>NG_H-FRAME_CC_NEW_RFIT</t>
+  </si>
+  <si>
+    <t>COAL_NEW_RFIT</t>
+  </si>
+  <si>
+    <t>NG_CC_EX_NO_RFIT</t>
+  </si>
+  <si>
+    <t>NG_GT_EX_NO_RFIT</t>
+  </si>
+  <si>
+    <t>BIT_ST_EX_NO_RFIT</t>
+  </si>
+  <si>
+    <t>NG_CC_EX_RFIT</t>
+  </si>
+  <si>
+    <t>NG_GT_EX_RFIT</t>
+  </si>
+  <si>
+    <t>BIT_ST_EX_RFIT</t>
   </si>
 </sst>
 </file>
@@ -695,7 +737,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -890,6 +932,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,7 +1458,7 @@
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1407,9 +1467,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="345">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2062,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403AAC54-22D7-42C6-84BF-5B756562A678}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2692,25 +2757,147 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\FragilityCurvesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36E93F6-9F2E-48E9-85C8-4105A7A843D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48EF142-4A23-40B9-8F8A-B18133D573E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="3990" windowWidth="27000" windowHeight="17010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="140">
   <si>
     <t>Technologies</t>
   </si>
@@ -383,9 +383,6 @@
     <t>solar_Kabre</t>
   </si>
   <si>
-    <t>wind_AVG_CAMPO_MIGUEL</t>
-  </si>
-  <si>
     <t>NotAffected</t>
   </si>
   <si>
@@ -447,6 +444,18 @@
   </si>
   <si>
     <t>BIT_ST_EX_RFIT</t>
+  </si>
+  <si>
+    <t>wind_land_Bouchard</t>
+  </si>
+  <si>
+    <t>wind_offshore_Massachusetts_Wilkie</t>
+  </si>
+  <si>
+    <t>Transmission60_Substation40</t>
+  </si>
+  <si>
+    <t>DistributionPole_Wood_Salmana_20Underground</t>
   </si>
 </sst>
 </file>
@@ -737,7 +746,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,12 +930,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1287,7 +1290,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="10"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1458,7 +1461,7 @@
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1467,12 +1470,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2129,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403AAC54-22D7-42C6-84BF-5B756562A678}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:A72"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2379,7 +2381,7 @@
         <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2456,7 +2458,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2500,7 +2502,7 @@
         <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2511,7 +2513,7 @@
         <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2522,7 +2524,7 @@
         <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2533,7 +2535,7 @@
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2544,7 +2546,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2648,7 +2650,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
         <v>95</v>
@@ -2659,7 +2661,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
         <v>96</v>
@@ -2709,7 +2711,7 @@
         <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2720,7 +2722,7 @@
         <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="3" customFormat="1">
@@ -2731,170 +2733,170 @@
         <v>71</v>
       </c>
       <c r="C54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" s="3" customFormat="1">
-      <c r="A55" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="3" customFormat="1">
-      <c r="A56" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="4" t="s">
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" t="s">
         <v>119</v>
       </c>
-      <c r="C57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="6" t="s">
+      <c r="B60" s="4"/>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="6" t="s">
+      <c r="B64" s="4"/>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="6" t="s">
+      <c r="B65" s="4"/>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="6" t="s">
+      <c r="B66" s="4"/>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="7" t="s">
+      <c r="B68" s="4"/>
+      <c r="C68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="7" t="s">
+      <c r="C71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="C70" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="C72" t="s">
         <v>110</v>

--- a/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/Tech2FragilityCurve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\FragilityCurvesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48EF142-4A23-40B9-8F8A-B18133D573E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283F59EC-926E-4F68-A1CF-FED1F7AB4B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="3990" windowWidth="27000" windowHeight="17010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="142">
   <si>
     <t>Technologies</t>
   </si>
@@ -389,15 +389,9 @@
     <t>GENERAL_CO2_CAP</t>
   </si>
   <si>
-    <t>ENERGY_INTERCHANGE</t>
-  </si>
-  <si>
     <t>Tech Used to Represent Other Options For CO2 Capture</t>
   </si>
   <si>
-    <t>Interchange of Energy in/out of NC</t>
-  </si>
-  <si>
     <t>PV-RESIDENTIAL</t>
   </si>
   <si>
@@ -456,6 +450,18 @@
   </si>
   <si>
     <t>DistributionPole_Wood_Salmana_20Underground</t>
+  </si>
+  <si>
+    <t>ENERGY_IMPORT_S1</t>
+  </si>
+  <si>
+    <t>ENERGY_IMPORT_S2</t>
+  </si>
+  <si>
+    <t>Electricity import to NC - S1 Tracks capacity</t>
+  </si>
+  <si>
+    <t>Electricity import to NC - S2 Tracks emissions. Which vary with the period not the vintage</t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,6 +750,13 @@
       <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1461,7 +1474,7 @@
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1477,6 +1490,7 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="345">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2129,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403AAC54-22D7-42C6-84BF-5B756562A678}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2381,7 +2395,7 @@
         <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2650,7 +2664,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
         <v>95</v>
@@ -2661,7 +2675,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
         <v>96</v>
@@ -2711,7 +2725,7 @@
         <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2722,7 +2736,7 @@
         <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="3" customFormat="1">
@@ -2733,7 +2747,7 @@
         <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2744,7 +2758,7 @@
         <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2755,7 +2769,7 @@
         <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2763,35 +2777,37 @@
         <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>117</v>
+      <c r="A58" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" s="4"/>
+      <c r="A59" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
       <c r="C59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" t="s">
@@ -2800,7 +2816,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" t="s">
@@ -2809,7 +2825,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" t="s">
@@ -2818,7 +2834,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" t="s">
@@ -2827,7 +2843,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" t="s">
@@ -2836,7 +2852,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" t="s">
@@ -2844,17 +2860,17 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="6" t="s">
-        <v>133</v>
+      <c r="A66" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" t="s">
@@ -2863,7 +2879,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" t="s">
@@ -2872,15 +2888,16 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>127</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B69" s="4"/>
       <c r="C69" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C70" t="s">
         <v>110</v>
@@ -2888,7 +2905,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
         <v>110</v>
@@ -2896,9 +2913,17 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" t="s">
         <v>110</v>
       </c>
     </row>
